--- a/magnet.xlsx
+++ b/magnet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaman\OneDrive\Documents\GitHub\low_power_challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/low_power_challenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{114B140C-E9C2-4D0B-8FB6-9316C1BA4A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{114B140C-E9C2-4D0B-8FB6-9316C1BA4A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC99630E-3C9C-4837-B4F5-52F7C677659F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView minimized="1" xWindow="40350" yWindow="2670" windowWidth="17280" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="magnet" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -692,6 +692,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -737,10 +752,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1097,11 +1113,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,318 +1146,341 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="D28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>